--- a/Code/Results/Cases/Case_4_194/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_194/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.041396620228825</v>
+        <v>1.063706102998296</v>
       </c>
       <c r="D2">
-        <v>1.059800129472524</v>
+        <v>1.071065694767837</v>
       </c>
       <c r="E2">
-        <v>1.059787243499664</v>
+        <v>1.077239540357198</v>
       </c>
       <c r="F2">
-        <v>1.067979277930534</v>
+        <v>1.084178910349178</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.071132069392232</v>
+        <v>1.059266692982902</v>
       </c>
       <c r="J2">
-        <v>1.062405931627945</v>
+        <v>1.068670102219458</v>
       </c>
       <c r="K2">
-        <v>1.0704847806758</v>
+        <v>1.073763859730122</v>
       </c>
       <c r="L2">
-        <v>1.070472049937368</v>
+        <v>1.079921362481024</v>
       </c>
       <c r="M2">
-        <v>1.07856633307191</v>
+        <v>1.086842603085771</v>
       </c>
       <c r="N2">
-        <v>1.06391466991052</v>
+        <v>1.070187736342784</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.046081332100619</v>
+        <v>1.064695555733248</v>
       </c>
       <c r="D3">
-        <v>1.063560640782417</v>
+        <v>1.071877746886015</v>
       </c>
       <c r="E3">
-        <v>1.064027787087432</v>
+        <v>1.078182794255318</v>
       </c>
       <c r="F3">
-        <v>1.072238802030331</v>
+        <v>1.085123451853068</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.072995417115673</v>
+        <v>1.059595675439569</v>
       </c>
       <c r="J3">
-        <v>1.065390009737482</v>
+        <v>1.069314293348623</v>
       </c>
       <c r="K3">
-        <v>1.073440056933985</v>
+        <v>1.074392404809425</v>
       </c>
       <c r="L3">
-        <v>1.07390207522876</v>
+        <v>1.080681965098084</v>
       </c>
       <c r="M3">
-        <v>1.082023849673748</v>
+        <v>1.087605798028291</v>
       </c>
       <c r="N3">
-        <v>1.066902985753251</v>
+        <v>1.070832842297242</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.049052061498852</v>
+        <v>1.065336284078112</v>
       </c>
       <c r="D4">
-        <v>1.065947554426708</v>
+        <v>1.072403592756781</v>
       </c>
       <c r="E4">
-        <v>1.066721569154582</v>
+        <v>1.078793925081053</v>
       </c>
       <c r="F4">
-        <v>1.074944403334106</v>
+        <v>1.08573538122412</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.074167500121513</v>
+        <v>1.059807540231874</v>
       </c>
       <c r="J4">
-        <v>1.067279118823275</v>
+        <v>1.069730964947364</v>
       </c>
       <c r="K4">
-        <v>1.075310235171148</v>
+        <v>1.074798853240231</v>
       </c>
       <c r="L4">
-        <v>1.076076274027914</v>
+        <v>1.081174277035511</v>
       </c>
       <c r="M4">
-        <v>1.084215239003232</v>
+        <v>1.088099751964263</v>
       </c>
       <c r="N4">
-        <v>1.06879477759063</v>
+        <v>1.071250105617446</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.0502869679765</v>
+        <v>1.065605761885952</v>
       </c>
       <c r="D5">
-        <v>1.066940271690174</v>
+        <v>1.072624751489383</v>
       </c>
       <c r="E5">
-        <v>1.067842448644767</v>
+        <v>1.079051030647368</v>
       </c>
       <c r="F5">
-        <v>1.076070141150271</v>
+        <v>1.085992814176704</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.07465240578049</v>
+        <v>1.059896366156977</v>
       </c>
       <c r="J5">
-        <v>1.068063608902515</v>
+        <v>1.069906093814685</v>
       </c>
       <c r="K5">
-        <v>1.076086690865675</v>
+        <v>1.074969660510102</v>
       </c>
       <c r="L5">
-        <v>1.076979822477218</v>
+        <v>1.081381280205099</v>
       </c>
       <c r="M5">
-        <v>1.085125872592986</v>
+        <v>1.088307436921399</v>
       </c>
       <c r="N5">
-        <v>1.069580381735765</v>
+        <v>1.071425483187846</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.05049350851557</v>
+        <v>1.065651015152031</v>
       </c>
       <c r="D6">
-        <v>1.067106333684555</v>
+        <v>1.072661890441155</v>
       </c>
       <c r="E6">
-        <v>1.068029981517693</v>
+        <v>1.079094210686544</v>
       </c>
       <c r="F6">
-        <v>1.076258483285791</v>
+        <v>1.086036048696476</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.07473336993031</v>
+        <v>1.059911266212887</v>
       </c>
       <c r="J6">
-        <v>1.068194768747939</v>
+        <v>1.069935496360258</v>
       </c>
       <c r="K6">
-        <v>1.076216497101821</v>
+        <v>1.074998336044761</v>
       </c>
       <c r="L6">
-        <v>1.077130927266431</v>
+        <v>1.081416038986179</v>
       </c>
       <c r="M6">
-        <v>1.085278158737014</v>
+        <v>1.088342309677738</v>
       </c>
       <c r="N6">
-        <v>1.069711727843214</v>
+        <v>1.071454927488407</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.049068616676217</v>
+        <v>1.065339884400481</v>
       </c>
       <c r="D7">
-        <v>1.065960860898772</v>
+        <v>1.072406547526107</v>
       </c>
       <c r="E7">
-        <v>1.06673659139194</v>
+        <v>1.07879735980815</v>
       </c>
       <c r="F7">
-        <v>1.074959490922428</v>
+        <v>1.085738820358511</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.074174009978577</v>
+        <v>1.059808728079891</v>
       </c>
       <c r="J7">
-        <v>1.06728963889479</v>
+        <v>1.06973330518555</v>
       </c>
       <c r="K7">
-        <v>1.075320648191817</v>
+        <v>1.074801135826509</v>
       </c>
       <c r="L7">
-        <v>1.07608838803284</v>
+        <v>1.081177042884759</v>
       </c>
       <c r="M7">
-        <v>1.084227448235251</v>
+        <v>1.088102526957063</v>
       </c>
       <c r="N7">
-        <v>1.068805312601854</v>
+        <v>1.071252449179038</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.042992706649368</v>
+        <v>1.064040392015938</v>
       </c>
       <c r="D8">
-        <v>1.06108084193617</v>
+        <v>1.071340049336207</v>
       </c>
       <c r="E8">
-        <v>1.061230992074922</v>
+        <v>1.077558154712495</v>
       </c>
       <c r="F8">
-        <v>1.06942953693388</v>
+        <v>1.084497967005323</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.071768890625847</v>
+        <v>1.059378082726288</v>
       </c>
       <c r="J8">
-        <v>1.063423260883432</v>
+        <v>1.068887842914274</v>
       </c>
       <c r="K8">
-        <v>1.071492433734817</v>
+        <v>1.073976333266351</v>
       </c>
       <c r="L8">
-        <v>1.071640829934086</v>
+        <v>1.080178379813397</v>
       </c>
       <c r="M8">
-        <v>1.079744528629499</v>
+        <v>1.087100503819464</v>
       </c>
       <c r="N8">
-        <v>1.06493344389024</v>
+        <v>1.070405786254361</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.031797480620769</v>
+        <v>1.0617542799393</v>
       </c>
       <c r="D9">
-        <v>1.052109050401839</v>
+        <v>1.069463810870434</v>
       </c>
       <c r="E9">
-        <v>1.051125738060856</v>
+        <v>1.075380561082846</v>
       </c>
       <c r="F9">
-        <v>1.059277816854912</v>
+        <v>1.082317205259714</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.067263109074101</v>
+        <v>1.058611526576389</v>
       </c>
       <c r="J9">
-        <v>1.056275278516628</v>
+        <v>1.067396817009</v>
       </c>
       <c r="K9">
-        <v>1.064409709269647</v>
+        <v>1.072520955257938</v>
       </c>
       <c r="L9">
-        <v>1.06344042928623</v>
+        <v>1.078419808273037</v>
       </c>
       <c r="M9">
-        <v>1.071477168154956</v>
+        <v>1.085335741612817</v>
       </c>
       <c r="N9">
-        <v>1.05777531056859</v>
+        <v>1.068912642921279</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.023968751268316</v>
+        <v>1.060232779039163</v>
       </c>
       <c r="D10">
-        <v>1.045851673222579</v>
+        <v>1.068215115811802</v>
       </c>
       <c r="E10">
-        <v>1.044088188397163</v>
+        <v>1.073932963664907</v>
       </c>
       <c r="F10">
-        <v>1.052206894657807</v>
+        <v>1.080867320497697</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.064064256319028</v>
+        <v>1.058095339273835</v>
       </c>
       <c r="J10">
-        <v>1.051262642098538</v>
+        <v>1.066402031663775</v>
       </c>
       <c r="K10">
-        <v>1.059439633785634</v>
+        <v>1.071549428906875</v>
       </c>
       <c r="L10">
-        <v>1.057704569199302</v>
+        <v>1.077248290625739</v>
       </c>
       <c r="M10">
-        <v>1.065693446850924</v>
+        <v>1.084159917342066</v>
       </c>
       <c r="N10">
-        <v>1.052755555631829</v>
+        <v>1.06791644486676</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.020483304371131</v>
+        <v>1.059574572042825</v>
       </c>
       <c r="D11">
-        <v>1.043070449027643</v>
+        <v>1.067674936475974</v>
       </c>
       <c r="E11">
-        <v>1.040962447680385</v>
+        <v>1.073307131962776</v>
       </c>
       <c r="F11">
-        <v>1.049066134641469</v>
+        <v>1.080240457207683</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.062629224362459</v>
+        <v>1.057870609074047</v>
       </c>
       <c r="J11">
-        <v>1.049028101226239</v>
+        <v>1.065971106204396</v>
       </c>
       <c r="K11">
-        <v>1.057223395753322</v>
+        <v>1.071128455371004</v>
       </c>
       <c r="L11">
-        <v>1.055151118089817</v>
+        <v>1.076741226879817</v>
       </c>
       <c r="M11">
-        <v>1.06311848525209</v>
+        <v>1.083650946602639</v>
       </c>
       <c r="N11">
-        <v>1.050517841455185</v>
+        <v>1.067484907443801</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.01917347902581</v>
+        <v>1.059330177421941</v>
       </c>
       <c r="D12">
-        <v>1.042026030646833</v>
+        <v>1.067474368118723</v>
       </c>
       <c r="E12">
-        <v>1.039788973897271</v>
+        <v>1.073074819656336</v>
       </c>
       <c r="F12">
-        <v>1.047886996637156</v>
+        <v>1.08000775557549</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.062088356261022</v>
+        <v>1.057786951775648</v>
       </c>
       <c r="J12">
-        <v>1.048187979913356</v>
+        <v>1.065811015475585</v>
       </c>
       <c r="K12">
-        <v>1.056390063074925</v>
+        <v>1.07097204334436</v>
       </c>
       <c r="L12">
-        <v>1.05419161871616</v>
+        <v>1.076552913434086</v>
       </c>
       <c r="M12">
-        <v>1.062150875868953</v>
+        <v>1.083461918507139</v>
       </c>
       <c r="N12">
-        <v>1.049676527073674</v>
+        <v>1.067324589367793</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.019455141512787</v>
+        <v>1.059382596689014</v>
       </c>
       <c r="D13">
-        <v>1.042250585033883</v>
+        <v>1.067517387151346</v>
       </c>
       <c r="E13">
-        <v>1.040041261634687</v>
+        <v>1.073124644654126</v>
       </c>
       <c r="F13">
-        <v>1.048140503230747</v>
+        <v>1.080057664362635</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.062204734421147</v>
+        <v>1.057804904801234</v>
       </c>
       <c r="J13">
-        <v>1.048368654725651</v>
+        <v>1.065845356637102</v>
       </c>
       <c r="K13">
-        <v>1.056569281992764</v>
+        <v>1.071005596220334</v>
       </c>
       <c r="L13">
-        <v>1.054397943139999</v>
+        <v>1.076593305817651</v>
       </c>
       <c r="M13">
-        <v>1.06235894538158</v>
+        <v>1.083502464470417</v>
       </c>
       <c r="N13">
-        <v>1.049857458464927</v>
+        <v>1.067358979297698</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.020375348311288</v>
+        <v>1.059554368410916</v>
       </c>
       <c r="D14">
-        <v>1.042984352005895</v>
+        <v>1.067658355829356</v>
       </c>
       <c r="E14">
-        <v>1.040865705551655</v>
+        <v>1.073287925899961</v>
       </c>
       <c r="F14">
-        <v>1.04896892604746</v>
+        <v>1.080221219088299</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.06258467785554</v>
+        <v>1.057863697655922</v>
       </c>
       <c r="J14">
-        <v>1.048958865815543</v>
+        <v>1.065957873577355</v>
       </c>
       <c r="K14">
-        <v>1.057154721638713</v>
+        <v>1.071115527191203</v>
       </c>
       <c r="L14">
-        <v>1.055072033972936</v>
+        <v>1.076725660161341</v>
       </c>
       <c r="M14">
-        <v>1.06303873321969</v>
+        <v>1.083635320939475</v>
       </c>
       <c r="N14">
-        <v>1.050448507722265</v>
+        <v>1.067471656024912</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.020940281746716</v>
+        <v>1.059660214950512</v>
       </c>
       <c r="D15">
-        <v>1.043434928641531</v>
+        <v>1.067745221692734</v>
       </c>
       <c r="E15">
-        <v>1.041372004751524</v>
+        <v>1.073388548701014</v>
       </c>
       <c r="F15">
-        <v>1.049477665468482</v>
+        <v>1.080322009575655</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.062817725128693</v>
+        <v>1.057899897705076</v>
       </c>
       <c r="J15">
-        <v>1.049321158916752</v>
+        <v>1.066027195577798</v>
       </c>
       <c r="K15">
-        <v>1.057514073876368</v>
+        <v>1.07118325352205</v>
       </c>
       <c r="L15">
-        <v>1.055485884402057</v>
+        <v>1.076807212388006</v>
       </c>
       <c r="M15">
-        <v>1.063456077794784</v>
+        <v>1.083717181707312</v>
       </c>
       <c r="N15">
-        <v>1.050811315321233</v>
+        <v>1.067541076470547</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.024197987058709</v>
+        <v>1.060276475041286</v>
       </c>
       <c r="D16">
-        <v>1.046034694692758</v>
+        <v>1.068250976655442</v>
       </c>
       <c r="E16">
-        <v>1.044293926458668</v>
+        <v>1.073974518952774</v>
       </c>
       <c r="F16">
-        <v>1.052413617520526</v>
+        <v>1.080908943384574</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.06415841507502</v>
+        <v>1.058110228259889</v>
       </c>
       <c r="J16">
-        <v>1.051409550771927</v>
+        <v>1.066430627104741</v>
       </c>
       <c r="K16">
-        <v>1.059585325859111</v>
+        <v>1.071577361360588</v>
       </c>
       <c r="L16">
-        <v>1.057872516994562</v>
+        <v>1.077281947300431</v>
       </c>
       <c r="M16">
-        <v>1.065862805497152</v>
+        <v>1.084193699691338</v>
       </c>
       <c r="N16">
-        <v>1.052902672932384</v>
+        <v>1.067945080916532</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.026215316370259</v>
+        <v>1.060663203291303</v>
       </c>
       <c r="D17">
-        <v>1.047645862457608</v>
+        <v>1.068568361731965</v>
       </c>
       <c r="E17">
-        <v>1.046105325980804</v>
+        <v>1.074342347767835</v>
       </c>
       <c r="F17">
-        <v>1.054233665643314</v>
+        <v>1.081277365620322</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.064985803268491</v>
+        <v>1.058241837364877</v>
       </c>
       <c r="J17">
-        <v>1.052702062292791</v>
+        <v>1.066683642220804</v>
       </c>
       <c r="K17">
-        <v>1.060867058366185</v>
+        <v>1.071824496048227</v>
       </c>
       <c r="L17">
-        <v>1.059350528782506</v>
+        <v>1.077579793118569</v>
       </c>
       <c r="M17">
-        <v>1.067353210562841</v>
+        <v>1.084492652708552</v>
       </c>
       <c r="N17">
-        <v>1.054197019967861</v>
+        <v>1.068198455343082</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.027382829019058</v>
+        <v>1.060888834430054</v>
       </c>
       <c r="D18">
-        <v>1.048578748119837</v>
+        <v>1.068753536584203</v>
       </c>
       <c r="E18">
-        <v>1.047154363037608</v>
+        <v>1.074556991302002</v>
       </c>
       <c r="F18">
-        <v>1.055287692393995</v>
+        <v>1.081492351313769</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.065463613286521</v>
+        <v>1.058318485209341</v>
       </c>
       <c r="J18">
-        <v>1.053449818858594</v>
+        <v>1.066831204544874</v>
       </c>
       <c r="K18">
-        <v>1.061608514870279</v>
+        <v>1.071968616896691</v>
       </c>
       <c r="L18">
-        <v>1.060205933787684</v>
+        <v>1.077753541856097</v>
       </c>
       <c r="M18">
-        <v>1.06821576862644</v>
+        <v>1.084667043183005</v>
       </c>
       <c r="N18">
-        <v>1.054945838433756</v>
+        <v>1.068346227222577</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.027779390658731</v>
+        <v>1.060965778820275</v>
       </c>
       <c r="D19">
-        <v>1.048895687522787</v>
+        <v>1.068816684787327</v>
       </c>
       <c r="E19">
-        <v>1.047510800794069</v>
+        <v>1.074630195316411</v>
       </c>
       <c r="F19">
-        <v>1.055645822196824</v>
+        <v>1.08156567132071</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.065625731235021</v>
+        <v>1.058344600196558</v>
       </c>
       <c r="J19">
-        <v>1.053703756878598</v>
+        <v>1.06688151655893</v>
       </c>
       <c r="K19">
-        <v>1.061860302288958</v>
+        <v>1.072017753500802</v>
       </c>
       <c r="L19">
-        <v>1.06049648539442</v>
+        <v>1.077812789103667</v>
       </c>
       <c r="M19">
-        <v>1.068508746453809</v>
+        <v>1.084726508554356</v>
       </c>
       <c r="N19">
-        <v>1.055200137074875</v>
+        <v>1.068396610685464</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.025999829369047</v>
+        <v>1.060621704892779</v>
       </c>
       <c r="D20">
-        <v>1.04747371515859</v>
+        <v>1.06853430418828</v>
       </c>
       <c r="E20">
-        <v>1.045911762512703</v>
+        <v>1.074302873361223</v>
       </c>
       <c r="F20">
-        <v>1.054039179939488</v>
+        <v>1.081237827955979</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.064897530304129</v>
+        <v>1.058227729105819</v>
       </c>
       <c r="J20">
-        <v>1.052564026945321</v>
+        <v>1.066656497857994</v>
       </c>
       <c r="K20">
-        <v>1.060730180770149</v>
+        <v>1.071797983791072</v>
       </c>
       <c r="L20">
-        <v>1.059192648374837</v>
+        <v>1.07754783497377</v>
       </c>
       <c r="M20">
-        <v>1.067194008320767</v>
+        <v>1.084460576192887</v>
       </c>
       <c r="N20">
-        <v>1.054058788594364</v>
+        <v>1.068171272432163</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.020104796125898</v>
+        <v>1.059503783353893</v>
       </c>
       <c r="D21">
-        <v>1.042768593952873</v>
+        <v>1.067616841896964</v>
       </c>
       <c r="E21">
-        <v>1.040623276070268</v>
+        <v>1.073239839508365</v>
       </c>
       <c r="F21">
-        <v>1.048725327235184</v>
+        <v>1.080173052333149</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.062473013032793</v>
+        <v>1.057846389659758</v>
       </c>
       <c r="J21">
-        <v>1.048785346667209</v>
+        <v>1.065924740849818</v>
       </c>
       <c r="K21">
-        <v>1.056982607756452</v>
+        <v>1.071083156460524</v>
       </c>
       <c r="L21">
-        <v>1.054873840218919</v>
+        <v>1.076686684198731</v>
       </c>
       <c r="M21">
-        <v>1.062838865169474</v>
+        <v>1.083596197287318</v>
       </c>
       <c r="N21">
-        <v>1.050274742156838</v>
+        <v>1.067438476245101</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.016310106622379</v>
+        <v>1.058801438757596</v>
       </c>
       <c r="D22">
-        <v>1.039744330731866</v>
+        <v>1.067040450501911</v>
       </c>
       <c r="E22">
-        <v>1.037225896909836</v>
+        <v>1.072572333162019</v>
       </c>
       <c r="F22">
-        <v>1.045311505413268</v>
+        <v>1.079504415313049</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.060903118059096</v>
+        <v>1.05760557077317</v>
       </c>
       <c r="J22">
-        <v>1.046350758147306</v>
+        <v>1.065464507122411</v>
       </c>
       <c r="K22">
-        <v>1.054567525709564</v>
+        <v>1.070633463638554</v>
       </c>
       <c r="L22">
-        <v>1.052094294642092</v>
+        <v>1.076145433620197</v>
       </c>
       <c r="M22">
-        <v>1.06003577874907</v>
+        <v>1.083052880577762</v>
       </c>
       <c r="N22">
-        <v>1.047836696241984</v>
+        <v>1.066977588933012</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.018330397298106</v>
+        <v>1.059173713783215</v>
       </c>
       <c r="D23">
-        <v>1.041354003515913</v>
+        <v>1.067345963126939</v>
       </c>
       <c r="E23">
-        <v>1.039033994047172</v>
+        <v>1.072926108528389</v>
       </c>
       <c r="F23">
-        <v>1.047128365877032</v>
+        <v>1.079858793429524</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.061739780590034</v>
+        <v>1.057733333333393</v>
       </c>
       <c r="J23">
-        <v>1.04764712511214</v>
+        <v>1.065708499609137</v>
       </c>
       <c r="K23">
-        <v>1.055853553582205</v>
+        <v>1.070871877981796</v>
       </c>
       <c r="L23">
-        <v>1.053574057633207</v>
+        <v>1.076432342571836</v>
       </c>
       <c r="M23">
-        <v>1.061528087774805</v>
+        <v>1.083340888271451</v>
       </c>
       <c r="N23">
-        <v>1.049134904196604</v>
+        <v>1.067221927917055</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.026097226921077</v>
+        <v>1.060640456050211</v>
       </c>
       <c r="D24">
-        <v>1.04755152233677</v>
+        <v>1.068549693173404</v>
       </c>
       <c r="E24">
-        <v>1.045999248709008</v>
+        <v>1.074320709852316</v>
       </c>
       <c r="F24">
-        <v>1.054127083024057</v>
+        <v>1.081255693042798</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.06493743183978</v>
+        <v>1.058234104383939</v>
       </c>
       <c r="J24">
-        <v>1.052626418126683</v>
+        <v>1.066668763280049</v>
       </c>
       <c r="K24">
-        <v>1.060792048853846</v>
+        <v>1.071809963627397</v>
       </c>
       <c r="L24">
-        <v>1.059264008382516</v>
+        <v>1.077562275421082</v>
       </c>
       <c r="M24">
-        <v>1.067265965842414</v>
+        <v>1.08447507013949</v>
       </c>
       <c r="N24">
-        <v>1.05412126837836</v>
+        <v>1.068183555272524</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.034753256774792</v>
+        <v>1.062344844453266</v>
       </c>
       <c r="D25">
-        <v>1.054475170608118</v>
+        <v>1.069948492947683</v>
       </c>
       <c r="E25">
-        <v>1.053788930003847</v>
+        <v>1.075942797983651</v>
       </c>
       <c r="F25">
-        <v>1.061953443146926</v>
+        <v>1.082880292233347</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.068461169116473</v>
+        <v>1.058810609614231</v>
       </c>
       <c r="J25">
-        <v>1.058165085159924</v>
+        <v>1.067782421827729</v>
       </c>
       <c r="K25">
-        <v>1.066282842418318</v>
+        <v>1.072897433678209</v>
       </c>
       <c r="L25">
-        <v>1.065605921758358</v>
+        <v>1.078874293124783</v>
       </c>
       <c r="M25">
-        <v>1.073660531909983</v>
+        <v>1.08579185867825</v>
       </c>
       <c r="N25">
-        <v>1.059667800954083</v>
+        <v>1.06929879534308</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_194/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_194/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.063706102998296</v>
+        <v>1.041396620228825</v>
       </c>
       <c r="D2">
-        <v>1.071065694767837</v>
+        <v>1.059800129472524</v>
       </c>
       <c r="E2">
-        <v>1.077239540357198</v>
+        <v>1.059787243499664</v>
       </c>
       <c r="F2">
-        <v>1.084178910349178</v>
+        <v>1.067979277930535</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.059266692982902</v>
+        <v>1.071132069392233</v>
       </c>
       <c r="J2">
-        <v>1.068670102219458</v>
+        <v>1.062405931627945</v>
       </c>
       <c r="K2">
-        <v>1.073763859730122</v>
+        <v>1.070484780675801</v>
       </c>
       <c r="L2">
-        <v>1.079921362481024</v>
+        <v>1.070472049937368</v>
       </c>
       <c r="M2">
-        <v>1.086842603085771</v>
+        <v>1.07856633307191</v>
       </c>
       <c r="N2">
-        <v>1.070187736342784</v>
+        <v>1.063914669910521</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.064695555733248</v>
+        <v>1.046081332100619</v>
       </c>
       <c r="D3">
-        <v>1.071877746886015</v>
+        <v>1.063560640782417</v>
       </c>
       <c r="E3">
-        <v>1.078182794255318</v>
+        <v>1.064027787087431</v>
       </c>
       <c r="F3">
-        <v>1.085123451853068</v>
+        <v>1.07223880203033</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.059595675439569</v>
+        <v>1.072995417115673</v>
       </c>
       <c r="J3">
-        <v>1.069314293348623</v>
+        <v>1.065390009737481</v>
       </c>
       <c r="K3">
-        <v>1.074392404809425</v>
+        <v>1.073440056933985</v>
       </c>
       <c r="L3">
-        <v>1.080681965098084</v>
+        <v>1.07390207522876</v>
       </c>
       <c r="M3">
-        <v>1.087605798028291</v>
+        <v>1.082023849673747</v>
       </c>
       <c r="N3">
-        <v>1.070832842297242</v>
+        <v>1.06690298575325</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.065336284078112</v>
+        <v>1.049052061498852</v>
       </c>
       <c r="D4">
-        <v>1.072403592756781</v>
+        <v>1.065947554426708</v>
       </c>
       <c r="E4">
-        <v>1.078793925081053</v>
+        <v>1.066721569154582</v>
       </c>
       <c r="F4">
-        <v>1.08573538122412</v>
+        <v>1.074944403334107</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.059807540231874</v>
+        <v>1.074167500121513</v>
       </c>
       <c r="J4">
-        <v>1.069730964947364</v>
+        <v>1.067279118823275</v>
       </c>
       <c r="K4">
-        <v>1.074798853240231</v>
+        <v>1.075310235171148</v>
       </c>
       <c r="L4">
-        <v>1.081174277035511</v>
+        <v>1.076076274027915</v>
       </c>
       <c r="M4">
-        <v>1.088099751964263</v>
+        <v>1.084215239003232</v>
       </c>
       <c r="N4">
-        <v>1.071250105617446</v>
+        <v>1.06879477759063</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.065605761885952</v>
+        <v>1.050286967976499</v>
       </c>
       <c r="D5">
-        <v>1.072624751489383</v>
+        <v>1.066940271690173</v>
       </c>
       <c r="E5">
-        <v>1.079051030647368</v>
+        <v>1.067842448644766</v>
       </c>
       <c r="F5">
-        <v>1.085992814176704</v>
+        <v>1.07607014115027</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.059896366156977</v>
+        <v>1.07465240578049</v>
       </c>
       <c r="J5">
-        <v>1.069906093814685</v>
+        <v>1.068063608902514</v>
       </c>
       <c r="K5">
-        <v>1.074969660510102</v>
+        <v>1.076086690865675</v>
       </c>
       <c r="L5">
-        <v>1.081381280205099</v>
+        <v>1.076979822477217</v>
       </c>
       <c r="M5">
-        <v>1.088307436921399</v>
+        <v>1.085125872592986</v>
       </c>
       <c r="N5">
-        <v>1.071425483187846</v>
+        <v>1.069580381735764</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.065651015152031</v>
+        <v>1.05049350851557</v>
       </c>
       <c r="D6">
-        <v>1.072661890441155</v>
+        <v>1.067106333684555</v>
       </c>
       <c r="E6">
-        <v>1.079094210686544</v>
+        <v>1.068029981517693</v>
       </c>
       <c r="F6">
-        <v>1.086036048696476</v>
+        <v>1.076258483285791</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.059911266212887</v>
+        <v>1.07473336993031</v>
       </c>
       <c r="J6">
-        <v>1.069935496360258</v>
+        <v>1.068194768747939</v>
       </c>
       <c r="K6">
-        <v>1.074998336044761</v>
+        <v>1.076216497101822</v>
       </c>
       <c r="L6">
-        <v>1.081416038986179</v>
+        <v>1.077130927266431</v>
       </c>
       <c r="M6">
-        <v>1.088342309677738</v>
+        <v>1.085278158737014</v>
       </c>
       <c r="N6">
-        <v>1.071454927488407</v>
+        <v>1.069711727843214</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.065339884400481</v>
+        <v>1.049068616676217</v>
       </c>
       <c r="D7">
-        <v>1.072406547526107</v>
+        <v>1.065960860898773</v>
       </c>
       <c r="E7">
-        <v>1.07879735980815</v>
+        <v>1.066736591391941</v>
       </c>
       <c r="F7">
-        <v>1.085738820358511</v>
+        <v>1.074959490922428</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.059808728079891</v>
+        <v>1.074174009978577</v>
       </c>
       <c r="J7">
-        <v>1.06973330518555</v>
+        <v>1.067289638894791</v>
       </c>
       <c r="K7">
-        <v>1.074801135826509</v>
+        <v>1.075320648191817</v>
       </c>
       <c r="L7">
-        <v>1.081177042884759</v>
+        <v>1.07608838803284</v>
       </c>
       <c r="M7">
-        <v>1.088102526957063</v>
+        <v>1.084227448235251</v>
       </c>
       <c r="N7">
-        <v>1.071252449179038</v>
+        <v>1.068805312601854</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.064040392015938</v>
+        <v>1.042992706649367</v>
       </c>
       <c r="D8">
-        <v>1.071340049336207</v>
+        <v>1.061080841936169</v>
       </c>
       <c r="E8">
-        <v>1.077558154712495</v>
+        <v>1.061230992074921</v>
       </c>
       <c r="F8">
-        <v>1.084497967005323</v>
+        <v>1.069429536933878</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.059378082726288</v>
+        <v>1.071768890625846</v>
       </c>
       <c r="J8">
-        <v>1.068887842914274</v>
+        <v>1.063423260883432</v>
       </c>
       <c r="K8">
-        <v>1.073976333266351</v>
+        <v>1.071492433734816</v>
       </c>
       <c r="L8">
-        <v>1.080178379813397</v>
+        <v>1.071640829934085</v>
       </c>
       <c r="M8">
-        <v>1.087100503819464</v>
+        <v>1.079744528629498</v>
       </c>
       <c r="N8">
-        <v>1.070405786254361</v>
+        <v>1.064933443890239</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.0617542799393</v>
+        <v>1.03179748062077</v>
       </c>
       <c r="D9">
-        <v>1.069463810870434</v>
+        <v>1.05210905040184</v>
       </c>
       <c r="E9">
-        <v>1.075380561082846</v>
+        <v>1.051125738060857</v>
       </c>
       <c r="F9">
-        <v>1.082317205259714</v>
+        <v>1.059277816854913</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.058611526576389</v>
+        <v>1.067263109074101</v>
       </c>
       <c r="J9">
-        <v>1.067396817009</v>
+        <v>1.056275278516628</v>
       </c>
       <c r="K9">
-        <v>1.072520955257938</v>
+        <v>1.064409709269648</v>
       </c>
       <c r="L9">
-        <v>1.078419808273037</v>
+        <v>1.06344042928623</v>
       </c>
       <c r="M9">
-        <v>1.085335741612817</v>
+        <v>1.071477168154956</v>
       </c>
       <c r="N9">
-        <v>1.068912642921279</v>
+        <v>1.05777531056859</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.060232779039163</v>
+        <v>1.023968751268316</v>
       </c>
       <c r="D10">
-        <v>1.068215115811802</v>
+        <v>1.045851673222579</v>
       </c>
       <c r="E10">
-        <v>1.073932963664907</v>
+        <v>1.044088188397164</v>
       </c>
       <c r="F10">
-        <v>1.080867320497697</v>
+        <v>1.052206894657808</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.058095339273835</v>
+        <v>1.064064256319028</v>
       </c>
       <c r="J10">
-        <v>1.066402031663775</v>
+        <v>1.051262642098538</v>
       </c>
       <c r="K10">
-        <v>1.071549428906875</v>
+        <v>1.059439633785634</v>
       </c>
       <c r="L10">
-        <v>1.077248290625739</v>
+        <v>1.057704569199303</v>
       </c>
       <c r="M10">
-        <v>1.084159917342066</v>
+        <v>1.065693446850924</v>
       </c>
       <c r="N10">
-        <v>1.06791644486676</v>
+        <v>1.052755555631829</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.059574572042825</v>
+        <v>1.020483304371131</v>
       </c>
       <c r="D11">
-        <v>1.067674936475974</v>
+        <v>1.043070449027643</v>
       </c>
       <c r="E11">
-        <v>1.073307131962776</v>
+        <v>1.040962447680386</v>
       </c>
       <c r="F11">
-        <v>1.080240457207683</v>
+        <v>1.049066134641469</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.057870609074047</v>
+        <v>1.062629224362459</v>
       </c>
       <c r="J11">
-        <v>1.065971106204396</v>
+        <v>1.049028101226239</v>
       </c>
       <c r="K11">
-        <v>1.071128455371004</v>
+        <v>1.057223395753322</v>
       </c>
       <c r="L11">
-        <v>1.076741226879817</v>
+        <v>1.055151118089818</v>
       </c>
       <c r="M11">
-        <v>1.083650946602639</v>
+        <v>1.06311848525209</v>
       </c>
       <c r="N11">
-        <v>1.067484907443801</v>
+        <v>1.050517841455185</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.059330177421941</v>
+        <v>1.019173479025809</v>
       </c>
       <c r="D12">
-        <v>1.067474368118723</v>
+        <v>1.042026030646832</v>
       </c>
       <c r="E12">
-        <v>1.073074819656336</v>
+        <v>1.03978897389727</v>
       </c>
       <c r="F12">
-        <v>1.08000775557549</v>
+        <v>1.047886996637154</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.057786951775648</v>
+        <v>1.062088356261021</v>
       </c>
       <c r="J12">
-        <v>1.065811015475585</v>
+        <v>1.048187979913354</v>
       </c>
       <c r="K12">
-        <v>1.07097204334436</v>
+        <v>1.056390063074923</v>
       </c>
       <c r="L12">
-        <v>1.076552913434086</v>
+        <v>1.054191618716159</v>
       </c>
       <c r="M12">
-        <v>1.083461918507139</v>
+        <v>1.062150875868952</v>
       </c>
       <c r="N12">
-        <v>1.067324589367793</v>
+        <v>1.049676527073673</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.059382596689014</v>
+        <v>1.019455141512786</v>
       </c>
       <c r="D13">
-        <v>1.067517387151346</v>
+        <v>1.042250585033882</v>
       </c>
       <c r="E13">
-        <v>1.073124644654126</v>
+        <v>1.040041261634685</v>
       </c>
       <c r="F13">
-        <v>1.080057664362635</v>
+        <v>1.048140503230746</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.057804904801234</v>
+        <v>1.062204734421146</v>
       </c>
       <c r="J13">
-        <v>1.065845356637102</v>
+        <v>1.04836865472565</v>
       </c>
       <c r="K13">
-        <v>1.071005596220334</v>
+        <v>1.056569281992763</v>
       </c>
       <c r="L13">
-        <v>1.076593305817651</v>
+        <v>1.054397943139998</v>
       </c>
       <c r="M13">
-        <v>1.083502464470417</v>
+        <v>1.062358945381579</v>
       </c>
       <c r="N13">
-        <v>1.067358979297698</v>
+        <v>1.049857458464926</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.059554368410916</v>
+        <v>1.020375348311287</v>
       </c>
       <c r="D14">
-        <v>1.067658355829356</v>
+        <v>1.042984352005895</v>
       </c>
       <c r="E14">
-        <v>1.073287925899961</v>
+        <v>1.040865705551653</v>
       </c>
       <c r="F14">
-        <v>1.080221219088299</v>
+        <v>1.048968926047459</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.057863697655922</v>
+        <v>1.06258467785554</v>
       </c>
       <c r="J14">
-        <v>1.065957873577355</v>
+        <v>1.048958865815542</v>
       </c>
       <c r="K14">
-        <v>1.071115527191203</v>
+        <v>1.057154721638712</v>
       </c>
       <c r="L14">
-        <v>1.076725660161341</v>
+        <v>1.055072033972935</v>
       </c>
       <c r="M14">
-        <v>1.083635320939475</v>
+        <v>1.063038733219689</v>
       </c>
       <c r="N14">
-        <v>1.067471656024912</v>
+        <v>1.050448507722263</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.059660214950512</v>
+        <v>1.020940281746714</v>
       </c>
       <c r="D15">
-        <v>1.067745221692734</v>
+        <v>1.04343492864153</v>
       </c>
       <c r="E15">
-        <v>1.073388548701014</v>
+        <v>1.041372004751522</v>
       </c>
       <c r="F15">
-        <v>1.080322009575655</v>
+        <v>1.04947766546848</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.057899897705076</v>
+        <v>1.062817725128692</v>
       </c>
       <c r="J15">
-        <v>1.066027195577798</v>
+        <v>1.049321158916751</v>
       </c>
       <c r="K15">
-        <v>1.07118325352205</v>
+        <v>1.057514073876367</v>
       </c>
       <c r="L15">
-        <v>1.076807212388006</v>
+        <v>1.055485884402056</v>
       </c>
       <c r="M15">
-        <v>1.083717181707312</v>
+        <v>1.063456077794783</v>
       </c>
       <c r="N15">
-        <v>1.067541076470547</v>
+        <v>1.050811315321232</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.060276475041286</v>
+        <v>1.024197987058709</v>
       </c>
       <c r="D16">
-        <v>1.068250976655442</v>
+        <v>1.046034694692758</v>
       </c>
       <c r="E16">
-        <v>1.073974518952774</v>
+        <v>1.044293926458667</v>
       </c>
       <c r="F16">
-        <v>1.080908943384574</v>
+        <v>1.052413617520526</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.058110228259889</v>
+        <v>1.06415841507502</v>
       </c>
       <c r="J16">
-        <v>1.066430627104741</v>
+        <v>1.051409550771927</v>
       </c>
       <c r="K16">
-        <v>1.071577361360588</v>
+        <v>1.059585325859112</v>
       </c>
       <c r="L16">
-        <v>1.077281947300431</v>
+        <v>1.057872516994562</v>
       </c>
       <c r="M16">
-        <v>1.084193699691338</v>
+        <v>1.065862805497152</v>
       </c>
       <c r="N16">
-        <v>1.067945080916532</v>
+        <v>1.052902672932384</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.060663203291303</v>
+        <v>1.026215316370258</v>
       </c>
       <c r="D17">
-        <v>1.068568361731965</v>
+        <v>1.047645862457607</v>
       </c>
       <c r="E17">
-        <v>1.074342347767835</v>
+        <v>1.046105325980804</v>
       </c>
       <c r="F17">
-        <v>1.081277365620322</v>
+        <v>1.054233665643314</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.058241837364877</v>
+        <v>1.064985803268491</v>
       </c>
       <c r="J17">
-        <v>1.066683642220804</v>
+        <v>1.052702062292791</v>
       </c>
       <c r="K17">
-        <v>1.071824496048227</v>
+        <v>1.060867058366185</v>
       </c>
       <c r="L17">
-        <v>1.077579793118569</v>
+        <v>1.059350528782506</v>
       </c>
       <c r="M17">
-        <v>1.084492652708552</v>
+        <v>1.067353210562841</v>
       </c>
       <c r="N17">
-        <v>1.068198455343082</v>
+        <v>1.05419701996786</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.060888834430054</v>
+        <v>1.027382829019059</v>
       </c>
       <c r="D18">
-        <v>1.068753536584203</v>
+        <v>1.048578748119838</v>
       </c>
       <c r="E18">
-        <v>1.074556991302002</v>
+        <v>1.047154363037609</v>
       </c>
       <c r="F18">
-        <v>1.081492351313769</v>
+        <v>1.055287692393996</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.058318485209341</v>
+        <v>1.065463613286522</v>
       </c>
       <c r="J18">
-        <v>1.066831204544874</v>
+        <v>1.053449818858595</v>
       </c>
       <c r="K18">
-        <v>1.071968616896691</v>
+        <v>1.06160851487028</v>
       </c>
       <c r="L18">
-        <v>1.077753541856097</v>
+        <v>1.060205933787685</v>
       </c>
       <c r="M18">
-        <v>1.084667043183005</v>
+        <v>1.068215768626441</v>
       </c>
       <c r="N18">
-        <v>1.068346227222577</v>
+        <v>1.054945838433757</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.060965778820275</v>
+        <v>1.02777939065873</v>
       </c>
       <c r="D19">
-        <v>1.068816684787327</v>
+        <v>1.048895687522787</v>
       </c>
       <c r="E19">
-        <v>1.074630195316411</v>
+        <v>1.047510800794069</v>
       </c>
       <c r="F19">
-        <v>1.08156567132071</v>
+        <v>1.055645822196823</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.058344600196558</v>
+        <v>1.06562573123502</v>
       </c>
       <c r="J19">
-        <v>1.06688151655893</v>
+        <v>1.053703756878597</v>
       </c>
       <c r="K19">
-        <v>1.072017753500802</v>
+        <v>1.061860302288957</v>
       </c>
       <c r="L19">
-        <v>1.077812789103667</v>
+        <v>1.060496485394419</v>
       </c>
       <c r="M19">
-        <v>1.084726508554356</v>
+        <v>1.068508746453808</v>
       </c>
       <c r="N19">
-        <v>1.068396610685464</v>
+        <v>1.055200137074875</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.060621704892779</v>
+        <v>1.025999829369047</v>
       </c>
       <c r="D20">
-        <v>1.06853430418828</v>
+        <v>1.047473715158589</v>
       </c>
       <c r="E20">
-        <v>1.074302873361223</v>
+        <v>1.045911762512703</v>
       </c>
       <c r="F20">
-        <v>1.081237827955979</v>
+        <v>1.054039179939488</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.058227729105819</v>
+        <v>1.064897530304129</v>
       </c>
       <c r="J20">
-        <v>1.066656497857994</v>
+        <v>1.052564026945321</v>
       </c>
       <c r="K20">
-        <v>1.071797983791072</v>
+        <v>1.060730180770149</v>
       </c>
       <c r="L20">
-        <v>1.07754783497377</v>
+        <v>1.059192648374837</v>
       </c>
       <c r="M20">
-        <v>1.084460576192887</v>
+        <v>1.067194008320767</v>
       </c>
       <c r="N20">
-        <v>1.068171272432163</v>
+        <v>1.054058788594365</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.059503783353893</v>
+        <v>1.020104796125897</v>
       </c>
       <c r="D21">
-        <v>1.067616841896964</v>
+        <v>1.042768593952873</v>
       </c>
       <c r="E21">
-        <v>1.073239839508365</v>
+        <v>1.040623276070267</v>
       </c>
       <c r="F21">
-        <v>1.080173052333149</v>
+        <v>1.048725327235184</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.057846389659758</v>
+        <v>1.062473013032792</v>
       </c>
       <c r="J21">
-        <v>1.065924740849818</v>
+        <v>1.048785346667209</v>
       </c>
       <c r="K21">
-        <v>1.071083156460524</v>
+        <v>1.056982607756451</v>
       </c>
       <c r="L21">
-        <v>1.076686684198731</v>
+        <v>1.054873840218918</v>
       </c>
       <c r="M21">
-        <v>1.083596197287318</v>
+        <v>1.062838865169474</v>
       </c>
       <c r="N21">
-        <v>1.067438476245101</v>
+        <v>1.050274742156837</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.058801438757596</v>
+        <v>1.016310106622378</v>
       </c>
       <c r="D22">
-        <v>1.067040450501911</v>
+        <v>1.039744330731865</v>
       </c>
       <c r="E22">
-        <v>1.072572333162019</v>
+        <v>1.037225896909835</v>
       </c>
       <c r="F22">
-        <v>1.079504415313049</v>
+        <v>1.045311505413267</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.05760557077317</v>
+        <v>1.060903118059095</v>
       </c>
       <c r="J22">
-        <v>1.065464507122411</v>
+        <v>1.046350758147305</v>
       </c>
       <c r="K22">
-        <v>1.070633463638554</v>
+        <v>1.054567525709564</v>
       </c>
       <c r="L22">
-        <v>1.076145433620197</v>
+        <v>1.052094294642091</v>
       </c>
       <c r="M22">
-        <v>1.083052880577762</v>
+        <v>1.060035778749068</v>
       </c>
       <c r="N22">
-        <v>1.066977588933012</v>
+        <v>1.047836696241983</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.059173713783215</v>
+        <v>1.018330397298106</v>
       </c>
       <c r="D23">
-        <v>1.067345963126939</v>
+        <v>1.041354003515912</v>
       </c>
       <c r="E23">
-        <v>1.072926108528389</v>
+        <v>1.039033994047172</v>
       </c>
       <c r="F23">
-        <v>1.079858793429524</v>
+        <v>1.047128365877032</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.057733333333393</v>
+        <v>1.061739780590034</v>
       </c>
       <c r="J23">
-        <v>1.065708499609137</v>
+        <v>1.04764712511214</v>
       </c>
       <c r="K23">
-        <v>1.070871877981796</v>
+        <v>1.055853553582204</v>
       </c>
       <c r="L23">
-        <v>1.076432342571836</v>
+        <v>1.053574057633207</v>
       </c>
       <c r="M23">
-        <v>1.083340888271451</v>
+        <v>1.061528087774805</v>
       </c>
       <c r="N23">
-        <v>1.067221927917055</v>
+        <v>1.049134904196603</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.060640456050211</v>
+        <v>1.026097226921077</v>
       </c>
       <c r="D24">
-        <v>1.068549693173404</v>
+        <v>1.047551522336769</v>
       </c>
       <c r="E24">
-        <v>1.074320709852316</v>
+        <v>1.045999248709008</v>
       </c>
       <c r="F24">
-        <v>1.081255693042798</v>
+        <v>1.054127083024057</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.058234104383939</v>
+        <v>1.06493743183978</v>
       </c>
       <c r="J24">
-        <v>1.066668763280049</v>
+        <v>1.052626418126683</v>
       </c>
       <c r="K24">
-        <v>1.071809963627397</v>
+        <v>1.060792048853846</v>
       </c>
       <c r="L24">
-        <v>1.077562275421082</v>
+        <v>1.059264008382516</v>
       </c>
       <c r="M24">
-        <v>1.08447507013949</v>
+        <v>1.067265965842414</v>
       </c>
       <c r="N24">
-        <v>1.068183555272524</v>
+        <v>1.05412126837836</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.062344844453266</v>
+        <v>1.034753256774792</v>
       </c>
       <c r="D25">
-        <v>1.069948492947683</v>
+        <v>1.054475170608118</v>
       </c>
       <c r="E25">
-        <v>1.075942797983651</v>
+        <v>1.053788930003846</v>
       </c>
       <c r="F25">
-        <v>1.082880292233347</v>
+        <v>1.061953443146925</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.058810609614231</v>
+        <v>1.068461169116473</v>
       </c>
       <c r="J25">
-        <v>1.067782421827729</v>
+        <v>1.058165085159923</v>
       </c>
       <c r="K25">
-        <v>1.072897433678209</v>
+        <v>1.066282842418318</v>
       </c>
       <c r="L25">
-        <v>1.078874293124783</v>
+        <v>1.065605921758358</v>
       </c>
       <c r="M25">
-        <v>1.08579185867825</v>
+        <v>1.073660531909982</v>
       </c>
       <c r="N25">
-        <v>1.06929879534308</v>
+        <v>1.059667800954082</v>
       </c>
     </row>
   </sheetData>
